--- a/E_team企画書.xlsx
+++ b/E_team企画書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\さかな\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\さかな\Desktop\GC1\GC1E_team\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Eチーム　２</t>
   </si>
@@ -126,13 +126,6 @@
   </si>
   <si>
     <t>・タイトル　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完</t>
-    <rPh sb="0" eb="1">
-      <t>カン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -573,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -611,7 +604,7 @@
         <v>44841</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" s="7">
         <v>44848</v>
@@ -651,16 +644,14 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="6"/>

--- a/E_team企画書.xlsx
+++ b/E_team企画書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Eチーム　２</t>
   </si>
@@ -145,6 +145,20 @@
     </rPh>
     <rPh sb="6" eb="11">
       <t>ゼンタイカリカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認待ち</t>
+    <rPh sb="0" eb="3">
+      <t>カクニンマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -567,7 +581,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -653,7 +667,9 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="4"/>
       <c r="J3" s="8"/>
@@ -673,7 +689,9 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="4"/>
       <c r="J4" s="8"/>
@@ -733,7 +751,9 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="4"/>
       <c r="J7" s="8"/>

--- a/E_team企画書.xlsx
+++ b/E_team企画書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Eチーム　２</t>
   </si>
@@ -152,6 +152,23 @@
     <t>完</t>
     <rPh sb="0" eb="1">
       <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認待ち</t>
+    <rPh sb="0" eb="3">
+      <t>カクニンマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの画像で完成</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -581,7 +598,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -589,7 +606,8 @@
     <col min="1" max="1" width="133.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.09765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
@@ -714,7 +732,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="6"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -773,7 +793,9 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4"/>
       <c r="J8" s="8"/>
